--- a/data/[R] [WB] Employing skilled expatriates index.xlsx
+++ b/data/[R] [WB] Employing skilled expatriates index.xlsx
@@ -789,7 +789,7 @@
   <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +906,7 @@
         <v>0.28333333333333333</v>
       </c>
       <c r="O4">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
